--- a/biology/Zoologie/Anolis_porcatus/Anolis_porcatus.xlsx
+++ b/biology/Zoologie/Anolis_porcatus/Anolis_porcatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anolis porcatus est une espèce de sauriens de la famille des Dactyloidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anolis porcatus est une espèce de sauriens de la famille des Dactyloidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en République dominicaine et à Cuba[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en République dominicaine et à Cuba.
 Elle a été introduite en Floride aux États-Unis.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (26 août 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (26 août 2012) :
 Anolis porcatus aracelyae Pérez Beato, 1996
 Anolis porcatus porcatus Gray, 1840</t>
         </is>
@@ -575,7 +591,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gray, 1840 : Catalogue of the species of reptiles collected in Cuba by W. S. MacLeay, esq.; with some notes on their habits extracted from his MS. Annals and Magazine of Natural History, ser. 1, vol. 5, p. 108-115 (texte intégral).
 Perez-Beato, 1996 : A new subspecies of Anolis procatus (Sauria: Polychrotidae) from Western Cuba. Revista de Biología Tropical, vol. 44/45, no 4/1, p. 295-299.</t>
